--- a/updated_prelim_elo_scores.xlsx
+++ b/updated_prelim_elo_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,23 +457,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1787.3</v>
+        <v>1882.4</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1636</v>
+        <v>1644.9</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -483,23 +483,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1631.4</v>
+        <v>1634.3</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1597.5</v>
+        <v>1620</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1589</v>
+        <v>1604.4</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -518,53 +518,53 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1584</v>
+        <v>1595.4</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Zixiong</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1556.7</v>
+        <v>1584</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sebastian</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1498.1</v>
+        <v>1502.1</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Zheng</t>
+          <t>Zixiong</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1483.7</v>
+        <v>1493.3</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>1470.3</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
@@ -590,163 +590,254 @@
         <v>1460.1</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ruitao</t>
+          <t>Zheng</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1374</v>
+        <v>1459.8</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Abdulrahman</t>
+          <t>Jean-Pierre</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1367.2</v>
+        <v>1453.7</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hamdan</t>
+          <t>Gergo</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1354.2</v>
+        <v>1448.8</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Theo</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1336.7</v>
+        <v>1411.3</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Nic</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1327.2</v>
+        <v>1408.6</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Xiao</t>
+          <t>Ruitao</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1322.2</v>
+        <v>1399.7</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Norah</t>
+          <t>Hamdan</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1302.9</v>
+        <v>1384.9</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Khalil</t>
+          <t>Abdulrahman</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1267.5</v>
+        <v>1378.5</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hesham</t>
+          <t>Theo</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1216.1</v>
+        <v>1368.8</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aleksandra</t>
+          <t>Kirill</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1191.1</v>
+        <v>1344.1</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Abdulwahab</t>
+          <t>Xiao</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1173.6</v>
+        <v>1322.2</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Norah</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1310.7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Steven</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1305.1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Khalil</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1300.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1258</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1252.8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Abdulwahab</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1225.1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hesham</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1217.9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Nour</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>646.9</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2</v>
+      <c r="B31" t="n">
+        <v>663.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/updated_prelim_elo_scores.xlsx
+++ b/updated_prelim_elo_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,37 +453,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nakul</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1882.4</v>
+        <v>1672.2</v>
       </c>
       <c r="C2" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1644.9</v>
+        <v>1584</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1634.3</v>
+        <v>1575.6</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -492,37 +492,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sebastian</t>
+          <t>Ahmed</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1620</v>
+        <v>1548.4</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ahmed</t>
+          <t>Zixiong</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1604.4</v>
+        <v>1525.8</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1595.4</v>
+        <v>1493.6</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -531,66 +531,66 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Jean-Pierre</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584</v>
+        <v>1474.9</v>
       </c>
       <c r="C8" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>Jaewon</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1502.1</v>
+        <v>1470.3</v>
       </c>
       <c r="C9" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Zixiong</t>
+          <t>Niketan</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1493.3</v>
+        <v>1460.1</v>
       </c>
       <c r="C10" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jaewon</t>
+          <t>Gergo</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1470.3</v>
+        <v>1443.9</v>
       </c>
       <c r="C11" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Niketan</t>
+          <t>Ruitao</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1460.1</v>
+        <v>1439</v>
       </c>
       <c r="C12" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1459.8</v>
+        <v>1433.6</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -609,89 +609,89 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jean-Pierre</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1453.7</v>
+        <v>1423.4</v>
       </c>
       <c r="C14" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gergo</t>
+          <t>Abdulrahman</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1448.8</v>
+        <v>1411.6</v>
       </c>
       <c r="C15" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Theo</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1411.3</v>
+        <v>1401.5</v>
       </c>
       <c r="C16" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nic</t>
+          <t>Hamdan</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1408.6</v>
+        <v>1379.2</v>
       </c>
       <c r="C17" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ruitao</t>
+          <t>Nic</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1399.7</v>
+        <v>1366.1</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hamdan</t>
+          <t>Norah</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1384.9</v>
+        <v>1350.9</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Abdulrahman</t>
+          <t>Kirill</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1378.5</v>
+        <v>1348.1</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
@@ -700,50 +700,50 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Theo</t>
+          <t>Xiao</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1368.8</v>
+        <v>1322.2</v>
       </c>
       <c r="C21" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kirill</t>
+          <t>Khalil</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1344.1</v>
+        <v>1318.7</v>
       </c>
       <c r="C22" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Xiao</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1322.2</v>
+        <v>1313.6</v>
       </c>
       <c r="C23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Norah</t>
+          <t>Aleksandra</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1310.7</v>
+        <v>1295.5</v>
       </c>
       <c r="C24" t="n">
         <v>3.5</v>
@@ -752,91 +752,52 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1305.1</v>
+        <v>1262.1</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Khalil</t>
+          <t>Hesham</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1300.5</v>
+        <v>1219.6</v>
       </c>
       <c r="C26" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Abdulwahab</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1258</v>
+        <v>1205</v>
       </c>
       <c r="C27" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aleksandra</t>
+          <t>Nour</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1252.8</v>
+        <v>674.6</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Abdulwahab</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1225.1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Hesham</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1217.9</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Nour</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>663.3</v>
-      </c>
-      <c r="C31" t="n">
         <v>1.5</v>
       </c>
     </row>
